--- a/src/main/webapp/assets/excel/plan/Mining_Plan_1_2.xlsx
+++ b/src/main/webapp/assets/excel/plan/Mining_Plan_1_2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Тайлан татаж авсан огноо:</t>
   </si>
@@ -87,7 +87,10 @@
     <t>Маягтын мэдээлэл</t>
   </si>
   <si>
-    <t>Тайлангийн маягт 1.2-ын мэдээлэл</t>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Тайлангийн маягт 1.2 Бүтээгдэхүүн үйлдвэрлэлийн төлөв</t>
   </si>
 </sst>
 </file>
@@ -219,9 +222,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -236,6 +236,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,10 +523,10 @@
   <dimension ref="A1:DU3102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -539,124 +542,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:125" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:125" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:125" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="1:125" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:125" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="10"/>
-    </row>
-    <row r="3" spans="1:125" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13"/>
-    </row>
-    <row r="4" spans="1:125" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-    </row>
-    <row r="5" spans="1:125" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:125" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:125" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -66302,15 +66305,7 @@
       <c r="S3102"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="22">
     <mergeCell ref="N4:R4"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
@@ -66326,6 +66321,13 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/webapp/assets/excel/plan/Mining_Plan_1_2.xlsx
+++ b/src/main/webapp/assets/excel/plan/Mining_Plan_1_2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Тайлан татаж авсан огноо:</t>
   </si>
@@ -92,12 +92,15 @@
   <si>
     <t>Тайлангийн маягт 1.2 Бүтээгдэхүүн үйлдвэрлэлийн төлөв</t>
   </si>
+  <si>
+    <t>Тодотгол</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +130,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -222,6 +232,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -237,8 +250,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,7 +528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -526,7 +542,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="A1:D1"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -538,128 +554,134 @@
     <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:125" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:125" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:125" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:125" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="S5" s="15"/>
     </row>
     <row r="6" spans="1:125" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:125" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -716,7 +738,9 @@
       <c r="R7" s="4">
         <v>19</v>
       </c>
-      <c r="S7" s="6"/>
+      <c r="S7" s="14">
+        <v>20</v>
+      </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -66305,13 +66329,8 @@
       <c r="S3102"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
+  <mergeCells count="23">
+    <mergeCell ref="S4:S6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="L5:L6"/>
@@ -66328,6 +66347,12 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/webapp/assets/excel/plan/Mining_Plan_1_2.xlsx
+++ b/src/main/webapp/assets/excel/plan/Mining_Plan_1_2.xlsx
@@ -23,9 +23,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Тайлан татаж авсан огноо:</t>
-  </si>
   <si>
     <t>Д/д</t>
   </si>
@@ -60,9 +57,6 @@
     <t>Ерөнхий мэдээлэл</t>
   </si>
   <si>
-    <t>Тайлангийн он:</t>
-  </si>
-  <si>
     <t>Төлөв</t>
   </si>
   <si>
@@ -90,10 +84,16 @@
     <t>№</t>
   </si>
   <si>
-    <t>Тайлангийн маягт 1.2 Бүтээгдэхүүн үйлдвэрлэлийн төлөв</t>
+    <t>Тодотгол</t>
   </si>
   <si>
-    <t>Тодотгол</t>
+    <t>Төлөвлөгөөний маягт 1.2 Бүтээгдэхүүн үйлдвэрлэлийн төлөв</t>
+  </si>
+  <si>
+    <t>Он:</t>
+  </si>
+  <si>
+    <t>Татаж авсан огноо:</t>
   </si>
 </sst>
 </file>
@@ -235,11 +235,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -249,12 +255,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,7 +528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,7 +542,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4:S6"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -560,128 +560,128 @@
   <sheetData>
     <row r="1" spans="1:125" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:125" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:125" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:125" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:125" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10"/>
-    </row>
-    <row r="3" spans="1:125" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13"/>
-    </row>
-    <row r="4" spans="1:125" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:125" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" s="15"/>
+      <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:125" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="15"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:125" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -738,7 +738,7 @@
       <c r="R7" s="4">
         <v>19</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="9">
         <v>20</v>
       </c>
       <c r="T7" s="6"/>
@@ -66330,6 +66330,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
     <mergeCell ref="S4:S6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="M5:M6"/>
@@ -66346,13 +66353,6 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
